--- a/Documentation/UseCases - Scenarios/Scenarios/ScenariosGuest.xlsx
+++ b/Documentation/UseCases - Scenarios/Scenarios/ScenariosGuest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel.PITTET\Documents\GitHub\TPI_2023\Documentation\UseCases - Scenarios\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DF6CED-48E7-400B-A830-42CDB3D26190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E900A7-0048-4540-9322-5B7DFB616946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{3CC9808D-9F48-48C1-8654-DA68AC4A64CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{3CC9808D-9F48-48C1-8654-DA68AC4A64CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Création d'un compte" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Action utilisateur</t>
   </si>
@@ -56,15 +56,9 @@
     <t>Tout les champs sont remplis</t>
   </si>
   <si>
-    <t>Oui --&gt;</t>
-  </si>
-  <si>
     <t>Connecte l'utilisateur au compte créé</t>
   </si>
   <si>
-    <t>Non --&gt;</t>
-  </si>
-  <si>
     <t>Affiche un message d'erreur</t>
   </si>
   <si>
@@ -156,6 +150,24 @@
   </si>
   <si>
     <t>Le mot de passe est écrit deux fois de la même manière</t>
+  </si>
+  <si>
+    <t>Toutes les conditions sont OK</t>
+  </si>
+  <si>
+    <t>Charge la page d'accueil</t>
+  </si>
+  <si>
+    <t>Recharge la page</t>
+  </si>
+  <si>
+    <t>Les conditions ne sont pas toutes OK</t>
+  </si>
+  <si>
+    <t>Charge la page d'acceuil</t>
+  </si>
+  <si>
+    <t>Les valeurs des champs de filtrage ne sont pas toutes valides</t>
   </si>
 </sst>
 </file>
@@ -832,7 +844,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +854,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -860,7 +872,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -869,7 +881,7 @@
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -879,58 +891,62 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -993,7 +1009,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1019,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1021,16 +1037,16 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1040,37 +1056,41 @@
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1158,7 +1178,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1176,11 +1196,11 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4360B528-F050-467B-9D37-0453A7A49088}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1319,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1317,11 +1337,11 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,7 +1460,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1458,20 +1478,20 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1574,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E3A5CD-6DD4-4F8A-8B77-76E138A40641}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1605,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1603,38 +1623,36 @@
     </row>
     <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
